--- a/dbSchema/schemas/databaseIngestSchema.xlsx
+++ b/dbSchema/schemas/databaseIngestSchema.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gosl241\OneDrive - PNNL\Documents\GitHub\srpAnalytics\data\dataSchemas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pnnl-my.sharepoint.com/personal/sara_gosline_pnnl_gov/Documents/Documents/GitHub/srpAnalytics/dbSchema/schemas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82CCC4CA-BE57-4CB2-84E7-5F73780651B3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="111" documentId="13_ncr:1_{82CCC4CA-BE57-4CB2-84E7-5F73780651B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{71304F3E-46A8-49F4-BA91-403717549735}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="30960" windowHeight="16920" activeTab="5" xr2:uid="{494DBC99-8CF9-1C4B-AA75-A6ED73BF8BA1}"/>
+    <workbookView xWindow="6360" yWindow="2130" windowWidth="21600" windowHeight="11385" firstSheet="5" activeTab="5" xr2:uid="{494DBC99-8CF9-1C4B-AA75-A6ED73BF8BA1}"/>
   </bookViews>
   <sheets>
-    <sheet name="chemicalByExtractSample" sheetId="1" r:id="rId1"/>
-    <sheet name="chemdoseResponseVals" sheetId="2" r:id="rId2"/>
-    <sheet name="chemSummaryStats" sheetId="3" r:id="rId3"/>
+    <sheet name="chemSummaryStats" sheetId="3" r:id="rId1"/>
+    <sheet name="chemicalByExtractSample" sheetId="1" r:id="rId2"/>
+    <sheet name="chemdoseResponseVals" sheetId="2" r:id="rId3"/>
     <sheet name="chemXYcoords" sheetId="4" r:id="rId4"/>
     <sheet name="envSampdoseResponseVals" sheetId="5" r:id="rId5"/>
     <sheet name="envSampSummaryStats" sheetId="6" r:id="rId6"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="127">
   <si>
     <t>Variable</t>
   </si>
@@ -267,40 +267,176 @@
     <t>Measurement of chemical in M</t>
   </si>
   <si>
-    <t>Unit measured</t>
-  </si>
-  <si>
     <t>Measurement of chemical in water</t>
   </si>
   <si>
-    <t>CAS identifier</t>
-  </si>
-  <si>
     <t>Name of sample</t>
   </si>
   <si>
-    <t>Number of sample</t>
-  </si>
-  <si>
-    <t>Internal chemical identifier</t>
-  </si>
-  <si>
-    <t>Internal sample identifier</t>
-  </si>
-  <si>
     <t>ProjectName</t>
   </si>
   <si>
     <t>ProjectLink</t>
+  </si>
+  <si>
+    <t>Unique identifier for chemical</t>
+  </si>
+  <si>
+    <t>Selected model used to calculate benchmark dose (BMD)</t>
+  </si>
+  <si>
+    <t>Benchmark dose 10: dose required to achieve 10% of maximum effect</t>
+  </si>
+  <si>
+    <t>Benchmark dose 50: dose required to achieve 50% of maximum effect</t>
+  </si>
+  <si>
+    <t>Minimum dose of chemical</t>
+  </si>
+  <si>
+    <t>Maximum dose of chemical</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Normalized Area under the Curve. </t>
+  </si>
+  <si>
+    <t>CAS identifier chemical</t>
+  </si>
+  <si>
+    <t>EPA identifier according to the CompTox database</t>
+  </si>
+  <si>
+    <t>"Friendly name" of chemical, when available, pulled from the CompTox database</t>
+  </si>
+  <si>
+    <t>Inchikey format of chemical, pulled from the CompTox database</t>
+  </si>
+  <si>
+    <t>SMILES string format of chemical, pulled from the CompTox database</t>
+  </si>
+  <si>
+    <t>Molecular formula of chemical, pulled from the CompTox database</t>
+  </si>
+  <si>
+    <t>Number of data sources citing chemical, pulled from the CompTox database</t>
+  </si>
+  <si>
+    <t>Average mass of chemical, pulled from the CompTox database</t>
+  </si>
+  <si>
+    <t>Identifier in the OSU LIMS database.</t>
+  </si>
+  <si>
+    <t>Annotated class of chemical, mostly by manual curation.</t>
+  </si>
+  <si>
+    <t>Description of chemical, pulled from publicly available data resources.</t>
+  </si>
+  <si>
+    <t>Name of endpoint.</t>
+  </si>
+  <si>
+    <t>Description of endpoint.</t>
+  </si>
+  <si>
+    <t>Link to standardized term for endpoint.</t>
+  </si>
+  <si>
+    <t>Description of data quality for endpoint/chemical combination.</t>
+  </si>
+  <si>
+    <t>Unique identifier for sample</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of sample from OSU </t>
+  </si>
+  <si>
+    <t>Name of sample OSU</t>
+  </si>
+  <si>
+    <t>CAS identifier of chemical measured.</t>
+  </si>
+  <si>
+    <t>Specifical molar unit used.</t>
+  </si>
+  <si>
+    <t>Specific molear unit used</t>
+  </si>
+  <si>
+    <t>Median response of Zebrafish</t>
+  </si>
+  <si>
+    <t>Low end of zebrafish response</t>
+  </si>
+  <si>
+    <t>High end of zebrafish response</t>
+  </si>
+  <si>
+    <t>Unique identifier for environmental sample</t>
+  </si>
+  <si>
+    <t>Dose administered to zebrafish in uM</t>
+  </si>
+  <si>
+    <t>X-coordinate of model-fitted c urve</t>
+  </si>
+  <si>
+    <t>Y-coordinate of model-fitted c urve</t>
+  </si>
+  <si>
+    <t>Name of endpoint</t>
+  </si>
+  <si>
+    <t>Sample number from OSU LIM system</t>
+  </si>
+  <si>
+    <t>Project website link, if available</t>
+  </si>
+  <si>
+    <t>Project name, if available</t>
+  </si>
+  <si>
+    <t>Date sample collection began</t>
+  </si>
+  <si>
+    <t>Matrix used for sample</t>
+  </si>
+  <si>
+    <t>Technology used foro sample</t>
+  </si>
+  <si>
+    <t>Name of client, if available</t>
+  </si>
+  <si>
+    <t>Latitude of sample collection site</t>
+  </si>
+  <si>
+    <t>Longitude of sample collection site</t>
+  </si>
+  <si>
+    <t>Location name in OSU LIMS</t>
+  </si>
+  <si>
+    <t>Alternate location name</t>
+  </si>
+  <si>
+    <t>Description of alternate name</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -390,32 +526,38 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -730,11 +872,425 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84F71566-F96C-0A49-93E7-C742899FF38D}">
+  <dimension ref="A1:E23"/>
+  <sheetViews>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20:E23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="32.125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="10.875" style="4"/>
+    <col min="3" max="3" width="22.5" style="4" customWidth="1"/>
+    <col min="4" max="4" width="10.875" style="4"/>
+    <col min="5" max="5" width="27.875" style="4" customWidth="1"/>
+    <col min="6" max="16384" width="10.875" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E9C65D1-6CF8-8C49-A7DB-A6A9CD2A72C5}">
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -775,8 +1331,8 @@
       <c r="D2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="6" t="s">
-        <v>81</v>
+      <c r="E2" s="10" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -792,8 +1348,8 @@
       <c r="D3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="6" t="s">
-        <v>80</v>
+      <c r="E3" s="10" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -809,8 +1365,8 @@
       <c r="D4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="6" t="s">
-        <v>79</v>
+      <c r="E4" s="10" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -826,11 +1382,11 @@
       <c r="D5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="6" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E5" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>13</v>
       </c>
@@ -843,11 +1399,11 @@
       <c r="D6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="6" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="E6" s="10" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>15</v>
       </c>
@@ -864,7 +1420,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>17</v>
       </c>
@@ -877,11 +1433,11 @@
       <c r="D8" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="6" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="E8" s="10" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>19</v>
       </c>
@@ -895,7 +1451,7 @@
         <v>21</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -911,8 +1467,8 @@
       <c r="D10" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E10" s="6" t="s">
-        <v>75</v>
+      <c r="E10" s="10" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -930,18 +1486,19 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56C1FA9B-D401-F840-B303-06F6F3FDB15F}">
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.5" customWidth="1"/>
     <col min="3" max="3" width="19.625" customWidth="1"/>
+    <col min="5" max="5" width="29.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -974,8 +1531,11 @@
       <c r="D2" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E2" s="10" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>23</v>
       </c>
@@ -987,6 +1547,9 @@
       </c>
       <c r="D3" s="3" t="s">
         <v>7</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -1002,6 +1565,9 @@
       <c r="D4" s="3" t="s">
         <v>7</v>
       </c>
+      <c r="E4" s="10" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
@@ -1016,6 +1582,9 @@
       <c r="D5" s="3" t="s">
         <v>7</v>
       </c>
+      <c r="E5" s="10" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
@@ -1030,6 +1599,9 @@
       <c r="D6" s="3" t="s">
         <v>7</v>
       </c>
+      <c r="E6" s="10" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
@@ -1044,8 +1616,11 @@
       <c r="D7" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E7" s="10" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>30</v>
       </c>
@@ -1058,355 +1633,12 @@
       <c r="D8" s="3" t="s">
         <v>21</v>
       </c>
+      <c r="E8" s="10" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84F71566-F96C-0A49-93E7-C742899FF38D}">
-  <dimension ref="A1:E23"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="32.125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="10.875" style="4"/>
-    <col min="3" max="3" width="22.5" style="4" customWidth="1"/>
-    <col min="4" max="16384" width="10.875" style="4"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>21</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1418,7 +1650,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="E2" sqref="E2:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1426,7 +1658,9 @@
     <col min="1" max="1" width="17.375" style="4" customWidth="1"/>
     <col min="2" max="2" width="10.875" style="4"/>
     <col min="3" max="3" width="26.625" style="4" customWidth="1"/>
-    <col min="4" max="16384" width="10.875" style="4"/>
+    <col min="4" max="4" width="10.875" style="4"/>
+    <col min="5" max="5" width="24.75" style="4" customWidth="1"/>
+    <col min="6" max="16384" width="10.875" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -1446,7 +1680,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
@@ -1459,8 +1693,11 @@
       <c r="D2" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E2" s="10" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>56</v>
       </c>
@@ -1473,8 +1710,11 @@
       <c r="D3" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E3" s="10" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>58</v>
       </c>
@@ -1487,8 +1727,11 @@
       <c r="D4" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E4" s="10" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>29</v>
       </c>
@@ -1501,8 +1744,11 @@
       <c r="D5" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E5" s="10" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>30</v>
       </c>
@@ -1514,6 +1760,9 @@
       </c>
       <c r="D6" s="3" t="s">
         <v>7</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -1526,13 +1775,14 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.875" customWidth="1"/>
     <col min="3" max="3" width="23.375" customWidth="1"/>
+    <col min="5" max="5" width="22" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -1552,7 +1802,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
@@ -1565,8 +1815,11 @@
       <c r="D2" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E2" s="10" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>23</v>
       </c>
@@ -1579,8 +1832,11 @@
       <c r="D3" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E3" s="10" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>25</v>
       </c>
@@ -1593,8 +1849,11 @@
       <c r="D4" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E4" s="10" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>27</v>
       </c>
@@ -1607,8 +1866,11 @@
       <c r="D5" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E5" s="10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>28</v>
       </c>
@@ -1621,8 +1883,11 @@
       <c r="D6" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E6" s="10" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>29</v>
       </c>
@@ -1635,8 +1900,11 @@
       <c r="D7" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E7" s="10" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>30</v>
       </c>
@@ -1648,6 +1916,9 @@
       </c>
       <c r="D8" s="3" t="s">
         <v>7</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -1660,13 +1931,14 @@
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27.25" customWidth="1"/>
     <col min="3" max="3" width="38" customWidth="1"/>
+    <col min="5" max="5" width="20.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -1686,7 +1958,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>31</v>
       </c>
@@ -1699,8 +1971,11 @@
       <c r="D2" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E2" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>32</v>
       </c>
@@ -1713,8 +1988,11 @@
       <c r="D3" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E3" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>33</v>
       </c>
@@ -1727,8 +2005,11 @@
       <c r="D4" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E4" s="10" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>34</v>
       </c>
@@ -1741,8 +2022,11 @@
       <c r="D5" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E5" s="10" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>35</v>
       </c>
@@ -1755,8 +2039,11 @@
       <c r="D6" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E6" s="10" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>37</v>
       </c>
@@ -1768,6 +2055,9 @@
       </c>
       <c r="D7" s="3" t="s">
         <v>7</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -1780,11 +2070,14 @@
       <c r="C8" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D8" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>62</v>
       </c>
@@ -1794,8 +2087,11 @@
       <c r="C9" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>7</v>
+      <c r="D9" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -1808,11 +2104,14 @@
       <c r="C10" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D10" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>66</v>
       </c>
@@ -1822,11 +2121,14 @@
       <c r="C11" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D11" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>4</v>
       </c>
@@ -1839,8 +2141,11 @@
       <c r="D12" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E12" s="10" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>67</v>
       </c>
@@ -1850,8 +2155,11 @@
       <c r="C13" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="3" t="s">
-        <v>7</v>
+      <c r="D13" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -1867,8 +2175,11 @@
       <c r="D14" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E14" s="10" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>68</v>
       </c>
@@ -1881,8 +2192,11 @@
       <c r="D15" s="3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E15" s="10" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>70</v>
       </c>
@@ -1895,8 +2209,11 @@
       <c r="D16" s="3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E16" s="10" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>71</v>
       </c>
@@ -1909,8 +2226,11 @@
       <c r="D17" s="3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E17" s="10" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>72</v>
       </c>
@@ -1923,8 +2243,11 @@
       <c r="D18" s="3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E18" s="10" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>73</v>
       </c>
@@ -1937,8 +2260,11 @@
       <c r="D19" s="3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E19" s="10" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>29</v>
       </c>
@@ -1951,8 +2277,11 @@
       <c r="D20" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E20" s="10" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>52</v>
       </c>
@@ -1965,8 +2294,11 @@
       <c r="D21" s="3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E21" s="10" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>30</v>
       </c>
@@ -1979,8 +2311,11 @@
       <c r="D22" s="3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E22" s="10" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>53</v>
       </c>
@@ -1993,10 +2328,13 @@
       <c r="D23" s="3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E23" s="10" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>10</v>
@@ -2007,10 +2345,13 @@
       <c r="D24" s="6" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E24" s="10" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>10</v>
@@ -2020,6 +2361,9 @@
       </c>
       <c r="D25" s="6" t="s">
         <v>21</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -2060,7 +2404,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
@@ -2073,8 +2417,11 @@
       <c r="D2" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E2" s="10" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>56</v>
       </c>
@@ -2087,8 +2434,11 @@
       <c r="D3" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E3" s="10" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>58</v>
       </c>
@@ -2101,8 +2451,11 @@
       <c r="D4" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E4" s="10" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>29</v>
       </c>
@@ -2115,8 +2468,11 @@
       <c r="D5" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E5" s="10" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>30</v>
       </c>
@@ -2128,6 +2484,9 @@
       </c>
       <c r="D6" s="3" t="s">
         <v>7</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>99</v>
       </c>
     </row>
   </sheetData>
